--- a/published-data/fonds-solidarite/fds-2022-06-01/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-01/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>766324</v>
+        <v>766326</v>
       </c>
       <c r="D2" t="n">
         <v>155968</v>
       </c>
       <c r="E2" t="n">
-        <v>1429216555</v>
+        <v>1429219098</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="D3" t="n">
         <v>165</v>
       </c>
       <c r="E3" t="n">
-        <v>2223114</v>
+        <v>2233378</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -2378,13 +2378,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>150633</v>
+        <v>150634</v>
       </c>
       <c r="D48" t="n">
         <v>33533</v>
       </c>
       <c r="E48" t="n">
-        <v>275729556</v>
+        <v>275739556</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -5002,13 +5002,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>145229</v>
+        <v>145230</v>
       </c>
       <c r="D112" t="n">
         <v>27839</v>
       </c>
       <c r="E112" t="n">
-        <v>716363014</v>
+        <v>716365950</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306261</v>
+        <v>1306266</v>
       </c>
       <c r="D121" t="n">
         <v>220385</v>
       </c>
       <c r="E121" t="n">
-        <v>2275052755</v>
+        <v>2275067309</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633586</v>
+        <v>633607</v>
       </c>
       <c r="D129" t="n">
         <v>104967</v>
       </c>
       <c r="E129" t="n">
-        <v>3430996077</v>
+        <v>3431371573</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5781,13 +5781,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D131" t="n">
         <v>60</v>
       </c>
       <c r="E131" t="n">
-        <v>19365137</v>
+        <v>19427930</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>585840</v>
+        <v>585849</v>
       </c>
       <c r="D132" t="n">
         <v>90782</v>
       </c>
       <c r="E132" t="n">
-        <v>3467852704</v>
+        <v>3467997594</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5986,13 +5986,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>26692</v>
+        <v>26694</v>
       </c>
       <c r="D136" t="n">
         <v>4273</v>
       </c>
       <c r="E136" t="n">
-        <v>144312989</v>
+        <v>144319346</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -6027,13 +6027,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D137" t="n">
         <v>9</v>
       </c>
       <c r="E137" t="n">
-        <v>2080146</v>
+        <v>2267833</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>18459</v>
+        <v>18462</v>
       </c>
       <c r="D154" t="n">
         <v>3296</v>
       </c>
       <c r="E154" t="n">
-        <v>73371235</v>
+        <v>73574082</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>236827</v>
+        <v>236828</v>
       </c>
       <c r="D186" t="n">
         <v>46317</v>
       </c>
       <c r="E186" t="n">
-        <v>1189762500</v>
+        <v>1189788011</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -9471,13 +9471,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>135498</v>
+        <v>135499</v>
       </c>
       <c r="D221" t="n">
         <v>27176</v>
       </c>
       <c r="E221" t="n">
-        <v>681874695</v>
+        <v>681875940</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -10250,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>205912</v>
+        <v>205914</v>
       </c>
       <c r="D240" t="n">
         <v>33984</v>
       </c>
       <c r="E240" t="n">
-        <v>1069153776</v>
+        <v>1069370264</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
